--- a/test-cs-ror-prod32/ig/StructureDefinition-ror-healthcareservice-contact-telecom.xlsx
+++ b/test-cs-ror-prod32/ig/StructureDefinition-ror-healthcareservice-contact-telecom.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T07:52:06+00:00</t>
+    <t>2024-10-23T08:00:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-cs-ror-prod32/ig/StructureDefinition-ror-healthcareservice-contact-telecom.xlsx
+++ b/test-cs-ror-prod32/ig/StructureDefinition-ror-healthcareservice-contact-telecom.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T08:00:40+00:00</t>
+    <t>2024-10-23T08:17:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-cs-ror-prod32/ig/StructureDefinition-ror-healthcareservice-contact-telecom.xlsx
+++ b/test-cs-ror-prod32/ig/StructureDefinition-ror-healthcareservice-contact-telecom.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T08:17:39+00:00</t>
+    <t>2024-10-23T09:18:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
